--- a/biology/Botanique/Paphinia_randi/Paphinia_randi.xlsx
+++ b/biology/Botanique/Paphinia_randi/Paphinia_randi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia randi Linden &amp; Rodigas est une espèce d'orchidée appartenant à la sous-tribu des Stanhopeinae.
 Lors de la description de la plante, les auteurs semblent avoir hésité à voir dans ce taxon une espèce à part entière ou une variété de Paphinia cristata.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en l’honneur de l’Américain Edward Sprague Rand Jr, riche amateur de Glen Ridge, au Massachusetts, et auteur d’un ouvrage de culture des orchidées.
 </t>
@@ -543,7 +557,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paphinia cristata var. randi L.Lind. &amp; Rodigas. Lindenia 1: 65 (1885).
 Lycaste randi (Linden &amp; Rodigas) Nicholson.</t>
@@ -574,7 +590,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sepala petalis valde latiora, rubro lateritio vel haematetico colorata; sepala atque petala margine et signis albidis picta.
 Linden &amp; Rodig. Lindenia 1: 65 (1885).</t>
@@ -605,7 +623,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Brésil.
 </t>
@@ -636,7 +656,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Paphinia cristata.
 </t>
